--- a/武器表单.xlsx
+++ b/武器表单.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="武器" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name=" 道具" sheetId="2" r:id="rId2"/>
+    <sheet name="消耗品" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
   <si>
     <t>类型</t>
   </si>
@@ -24,6 +24,15 @@
     <t>范围</t>
   </si>
   <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
@@ -33,6 +42,9 @@
     <t>中</t>
   </si>
   <si>
+    <t>近战</t>
+  </si>
+  <si>
     <t>对角色朝向直刺，造成范围穿透伤害</t>
   </si>
   <si>
@@ -42,12 +54,21 @@
     <t>近</t>
   </si>
   <si>
+    <t>快</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
     <t>对前方造成三连击的范围穿透伤害</t>
   </si>
   <si>
     <t>手雷</t>
   </si>
   <si>
+    <t>慢</t>
+  </si>
+  <si>
     <t>丢出一个手雷，过一段时间后造成圆形的范围伤害</t>
   </si>
   <si>
@@ -63,12 +84,18 @@
     <t>斧头</t>
   </si>
   <si>
+    <t>大</t>
+  </si>
+  <si>
     <t>对周围圆形区域造成横扫范围伤害</t>
   </si>
   <si>
     <t>炮台</t>
   </si>
   <si>
+    <t>放置物</t>
+  </si>
+  <si>
     <t>放置一个炮台，对炮台最近的敌人发射子弹</t>
   </si>
   <si>
@@ -76,6 +103,281 @@
   </si>
   <si>
     <t>在击打到敌人时进行反弹</t>
+  </si>
+  <si>
+    <t>聊天框</t>
+  </si>
+  <si>
+    <t>有几率发射特殊子弹，将敌人往目标拉近</t>
+  </si>
+  <si>
+    <t>群风·导标</t>
+  </si>
+  <si>
+    <t>瞬间</t>
+  </si>
+  <si>
+    <t>贯穿</t>
+  </si>
+  <si>
+    <r>
+      <t>穿透性攻击，能对路径上所有敌人造成伤害，在攻击了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/5/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>次后瞬间发射3次</t>
+    </r>
+  </si>
+  <si>
+    <t>形似羊角的火焰法杖</t>
+  </si>
+  <si>
+    <r>
+      <t>弹道型攻击，朝一个方向射出</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/3/5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>枚散射的火球，碰撞后爆炸造成小范围伤害。</t>
+    </r>
+  </si>
+  <si>
+    <t>为师的舌头</t>
+  </si>
+  <si>
+    <r>
+      <t>每次会给敌人叠加一层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【口水】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，每层使敌人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移动速度降低3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。当一个敌人身上的“口水”叠加到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时，会清空层数并获得“腌制入味”光环：自身不会再被叠加口水。光环范围内除自身外其他敌人因脚臭而持续承受巴尔坦攻击力一定比例的少量伤害，并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减少10%移动速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。不同敌人的光环伤害可以叠加，减速效果最多叠加4层，光环持有者自身不受自己的光环影响。</t>
+    </r>
+  </si>
+  <si>
+    <t>歪头吐舌犬</t>
+  </si>
+  <si>
+    <t>召唤物</t>
+  </si>
+  <si>
+    <t>召唤一个狗自动攻击敌人</t>
+  </si>
+  <si>
+    <t>激情回应</t>
+  </si>
+  <si>
+    <t>近战/范围</t>
+  </si>
+  <si>
+    <t>对周围一圈造成一次伤害并击飞</t>
+  </si>
+  <si>
+    <t>骚话形态</t>
+  </si>
+  <si>
+    <t>对角色斜四个方向发射子弹</t>
+  </si>
+  <si>
+    <t>剃头刀</t>
+  </si>
+  <si>
+    <t>一个环绕身边旋转的剃头刀，对接触的敌人造成伤害</t>
+  </si>
+  <si>
+    <t>雌小鬼攻势</t>
+  </si>
+  <si>
+    <t>发射一个可收回的子弹</t>
+  </si>
+  <si>
+    <t>白鸽黑翼</t>
+  </si>
+  <si>
+    <t>对身边一定范围的地方展开环绕轰炸</t>
+  </si>
+  <si>
+    <t>脚臭</t>
+  </si>
+  <si>
+    <t>在走过的地方留下毒气，敌人接触后造成伤害</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>萃精凝华</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>每隔一段时间，场上随机刷新快速移动的，会逃走的群友，打倒过后永久略微增强自身</t>
+  </si>
+  <si>
+    <t>嘻嘻~</t>
+  </si>
+  <si>
+    <t>增幅</t>
+  </si>
+  <si>
+    <t>打到10个敌人时移动速度略微提升，且缓慢回血。5秒后恢复正常</t>
+  </si>
+  <si>
+    <t>布鲁阿凯伏</t>
+  </si>
+  <si>
+    <t>攻击击败敌人后，敌人会使其进入“劝诱”状态：无法攻击，不会死亡，不会被命中，向柚子羊反方向移动，但移动速度降低60%，持续8秒，时间结束后死亡。通过移动捕捉处于“劝诱”状态的敌人，每成功捕捉一名敌人获得5%的射速提升，最多叠加5层，持续8秒，每层独立计算</t>
+  </si>
+  <si>
+    <t>奇味异爱</t>
+  </si>
+  <si>
+    <t>当自己对敌人造成移动速度减少效果时，获得5%的移动速度增加效果，上限为20%。</t>
+  </si>
+  <si>
+    <t>对特惠的执着</t>
+  </si>
+  <si>
+    <t>拾取经验时有25%概率额外获得10点经验，每次击败敌人时有4%概率在敌人周围掉落一张“特价优惠券”，持续12秒。拾取后立即额外获得100点经验，但如果没能成功拾取，会陷入持续3秒的“失落”状态：攻击力-50%</t>
+  </si>
+  <si>
+    <t>that Man</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>每7秒内获得一个减少受到的下次近战伤害减少50%的护盾</t>
+  </si>
+  <si>
+    <t>博学</t>
+  </si>
+  <si>
+    <t>+20%伤害-10%移动速度</t>
+  </si>
+  <si>
+    <t>自然之友</t>
+  </si>
+  <si>
+    <t>掉落物</t>
+  </si>
+  <si>
+    <t>击杀敌人后掉落果实2%，果实能恢复10%的血量并增加10%的移动速度（暂时</t>
+  </si>
+  <si>
+    <t>老北京人肉卷</t>
+  </si>
+  <si>
+    <t>一段时间后身边掉落老北京人肉卷，能恢复15%的血量</t>
   </si>
 </sst>
 </file>
@@ -88,7 +390,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +405,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -244,6 +567,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -567,142 +905,184 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,103 +1395,400 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="59.7166666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.4166666666667" style="8" customWidth="1"/>
+    <col min="2" max="4" width="5.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.0916666666667" style="8" customWidth="1"/>
+    <col min="6" max="6" width="65.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
+      <c r="D16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1124,14 +1801,154 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="5.625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
